--- a/data/sumario_BPP_con_2022.xlsx
+++ b/data/sumario_BPP_con_2022.xlsx
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2990</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>8.62</v>
+        <v>9.66</v>
       </c>
     </row>
   </sheetData>
